--- a/biology/Botanique/Zoopagales/Zoopagales.xlsx
+++ b/biology/Botanique/Zoopagales/Zoopagales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zoopagomycetes, Zoopagomycotina, Zoopagomycota
-Les Zoopagales sont un ordre de champignons, uniques représentants de la classe des Zoopagomycetes, de la sous-division des Zoopagomycotina et de la division des Zoopagomycota. Ce sont des mycoparasites s'attaquant aux amibes, aux nématodes et aux rotifères. Les Zoopagales contiennent la plus grande diversité de genres de champignons prédateurs[1].
+Les Zoopagales sont un ordre de champignons, uniques représentants de la classe des Zoopagomycetes, de la sous-division des Zoopagomycotina et de la division des Zoopagomycota. Ce sont des mycoparasites s'attaquant aux amibes, aux nématodes et aux rotifères. Les Zoopagales contiennent la plus grande diversité de genres de champignons prédateurs.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre a une répartition cosmopolite[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre a une répartition cosmopolite.
 </t>
         </is>
       </c>
@@ -543,15 +557,17 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (10 février 2023)[3], le Catalogue of Life                                   (10 février 2023)[4] et The Taxonomicon  (10 février 2023)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (10 février 2023), le Catalogue of Life                                   (10 février 2023) et The Taxonomicon  (10 février 2023) :
 Cochlonemataceae Dudd., 1974
 Helicocephalidaceae Boedijn, 1959
 Piptocephalidaceae J.Schröt., 1886
 Sigmoideomycetaceae Benny, R.K.Benj. &amp; P.M.Kirk, 1992
 Zoopagaceae Drechsler, 1938
-Famille incertae sedis[3],[4] :
+Famille incertae sedis, :
 Basidiolum Cienk., 1861
 Massartia De Wild., 1897</t>
         </is>
@@ -581,9 +597,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nommés à partir du genre type Zoopage, l'ordre des Zoopagales a été proposé par Richard Keith Benjamin (d) en 1979[6], la sous-division des Zoopagomycotina par Gerald Leonard Benny (d) en 2007[7], la classe des Zoopagomycetes par Alexander Borissowitsch Doweld (d) en 2014[8] et la division des Zoopagomycota par Andrii Pylypovych Gryganskyi (d), Matthew Edward Smith (d), Joseph W. Spatafora (d) et Jason E. Stajich (d) en 2016[9]. Une étude de 2019 montre que les Zoopagales sont monophylétiques et que l'état ancestral de ce clade était soit le mycoparasitisme, soit la prédation (les champignons prédateurs étant définis comme se nourrissant de plus d'un individu au cours d'une étape de leur cycle de vie, tandis que les champignons parasites sont définis comme exploitant un seul individu au cours d'une étape de leur cycle)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nommés à partir du genre type Zoopage, l'ordre des Zoopagales a été proposé par Richard Keith Benjamin (d) en 1979, la sous-division des Zoopagomycotina par Gerald Leonard Benny (d) en 2007, la classe des Zoopagomycetes par Alexander Borissowitsch Doweld (d) en 2014 et la division des Zoopagomycota par Andrii Pylypovych Gryganskyi (d), Matthew Edward Smith (d), Joseph W. Spatafora (d) et Jason E. Stajich (d) en 2016. Une étude de 2019 montre que les Zoopagales sont monophylétiques et que l'état ancestral de ce clade était soit le mycoparasitisme, soit la prédation (les champignons prédateurs étant définis comme se nourrissant de plus d'un individu au cours d'une étape de leur cycle de vie, tandis que les champignons parasites sont définis comme exploitant un seul individu au cours d'une étape de leur cycle).
 </t>
         </is>
       </c>
